--- a/municipal/ENG/Business Register/Registered entities per 1000 persons/Imereti/Chiatura.xlsx
+++ b/municipal/ENG/Business Register/Registered entities per 1000 persons/Imereti/Chiatura.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Register Eng\Registered entities per 1000 persons\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Register 1000 persons Eng\4. Registered business entities per 1000 persons\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F556FB30-201E-4186-9A6A-09E1B2468EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chiatura" sheetId="1" r:id="rId1"/>
@@ -29,17 +30,17 @@
     <t>Number of entities</t>
   </si>
   <si>
-    <t>Number of entities registered in Chiatura Municipality (per 1 000 persons)</t>
+    <t>Number of registered business entities in Chiatura Municipality (per 1 000 persons)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +70,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -84,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,11 +111,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -116,21 +132,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,136 +433,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
-    <col min="2" max="13" width="10.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="6.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+    <row r="2" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7">
         <v>2010</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="7">
         <v>2011</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="7">
         <v>2012</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="7">
         <v>2013</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="7">
         <v>2014</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="7">
         <v>2015</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H3" s="7">
         <v>2016</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="7">
         <v>2017</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="7">
         <v>2018</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="7">
         <v>2019</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="7">
         <v>2020</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="7">
         <v>2021</v>
       </c>
+      <c r="N3" s="7">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="7">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="8">
         <v>55.867126833477137</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="8">
         <v>62.682240312821285</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="8">
         <v>68.79871461780391</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="8">
         <v>74.566693084318246</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="8">
         <v>81.207704320666309</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="8">
         <v>84.929356357927787</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="8">
         <v>90.117812554949893</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I4" s="8">
         <v>96.246373735229611</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="8">
         <v>102.53252663704021</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="8">
         <v>109.55324478725514</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L4" s="8">
         <v>115.59247034928003</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M4" s="8">
         <v>124.13627904405668</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="N4" s="8">
+        <v>130.27279266650683</v>
+      </c>
+      <c r="O4" s="8">
+        <v>224.81582805015827</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>